--- a/MyCProgram/近期工作/NAB/NAB 2017 FL-0222-DEV.XLSX
+++ b/MyCProgram/近期工作/NAB/NAB 2017 FL-0222-DEV.XLSX
@@ -1426,14 +1426,56 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1442,15 +1484,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1465,44 +1498,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1823,10 +1823,10 @@
       <c r="C1" s="17" t="s">
         <v>189</v>
       </c>
-      <c r="D1" s="64" t="s">
+      <c r="D1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="65"/>
+      <c r="E1" s="76"/>
       <c r="F1" s="3" t="s">
         <v>30</v>
       </c>
@@ -1865,16 +1865,16 @@
       <c r="B2" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="66" t="s">
         <v>184</v>
       </c>
-      <c r="D2" s="66" t="s">
+      <c r="D2" s="77" t="s">
         <v>17</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="61" t="s">
+      <c r="F2" s="69" t="s">
         <v>32</v>
       </c>
       <c r="G2" s="12"/>
@@ -1884,7 +1884,7 @@
       <c r="I2" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="J2" s="77">
+      <c r="J2" s="56">
         <v>42804</v>
       </c>
       <c r="K2" s="2" t="s">
@@ -1905,12 +1905,12 @@
       <c r="B3" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="67"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="78"/>
       <c r="E3" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="63"/>
+      <c r="F3" s="70"/>
       <c r="G3" s="12"/>
       <c r="H3" s="2" t="s">
         <v>106</v>
@@ -1918,7 +1918,7 @@
       <c r="I3" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="J3" s="78"/>
+      <c r="J3" s="57"/>
       <c r="K3" s="2" t="s">
         <v>89</v>
       </c>
@@ -1937,14 +1937,14 @@
       <c r="B4" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="56"/>
-      <c r="D4" s="58" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="72" t="s">
         <v>21</v>
       </c>
       <c r="E4" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="63"/>
+      <c r="F4" s="70"/>
       <c r="G4" s="12" t="s">
         <v>150</v>
       </c>
@@ -1954,7 +1954,7 @@
       <c r="I4" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="J4" s="78"/>
+      <c r="J4" s="57"/>
       <c r="K4" s="13" t="s">
         <v>125</v>
       </c>
@@ -1973,12 +1973,12 @@
       <c r="B5" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="56"/>
-      <c r="D5" s="59"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="73"/>
       <c r="E5" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="F5" s="63"/>
+      <c r="F5" s="70"/>
       <c r="G5" s="12"/>
       <c r="H5" s="2" t="s">
         <v>106</v>
@@ -1986,7 +1986,7 @@
       <c r="I5" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="57"/>
       <c r="K5" s="13" t="s">
         <v>125</v>
       </c>
@@ -2005,12 +2005,12 @@
       <c r="B6" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="56"/>
-      <c r="D6" s="59"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="73"/>
       <c r="E6" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="F6" s="63"/>
+      <c r="F6" s="70"/>
       <c r="G6" s="12" t="s">
         <v>151</v>
       </c>
@@ -2020,7 +2020,7 @@
       <c r="I6" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="J6" s="78"/>
+      <c r="J6" s="57"/>
       <c r="K6" s="13" t="s">
         <v>125</v>
       </c>
@@ -2039,12 +2039,12 @@
       <c r="B7" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="56"/>
-      <c r="D7" s="60"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="74"/>
       <c r="E7" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="F7" s="62"/>
+      <c r="F7" s="71"/>
       <c r="G7" s="12"/>
       <c r="H7" s="2" t="s">
         <v>106</v>
@@ -2052,7 +2052,7 @@
       <c r="I7" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="J7" s="79"/>
+      <c r="J7" s="58"/>
       <c r="K7" s="13" t="s">
         <v>125</v>
       </c>
@@ -2071,7 +2071,7 @@
       <c r="B8" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="57"/>
+      <c r="C8" s="80"/>
       <c r="D8" s="7" t="s">
         <v>23</v>
       </c>
@@ -2112,13 +2112,13 @@
       <c r="C9" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="D9" s="58" t="s">
+      <c r="D9" s="72" t="s">
         <v>24</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="F9" s="61" t="s">
+      <c r="F9" s="69" t="s">
         <v>31</v>
       </c>
       <c r="G9" s="12"/>
@@ -2152,11 +2152,11 @@
       <c r="C10" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="D10" s="60"/>
+      <c r="D10" s="74"/>
       <c r="E10" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="F10" s="62"/>
+      <c r="F10" s="71"/>
       <c r="G10" s="12"/>
       <c r="H10" s="2" t="s">
         <v>102</v>
@@ -2185,7 +2185,7 @@
       <c r="B11" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="55" t="s">
+      <c r="C11" s="66" t="s">
         <v>179</v>
       </c>
       <c r="D11" s="29" t="s">
@@ -2223,7 +2223,7 @@
       <c r="B12" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="56"/>
+      <c r="C12" s="79"/>
       <c r="D12" s="7" t="s">
         <v>25</v>
       </c>
@@ -2237,7 +2237,7 @@
       <c r="H12" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="I12" s="68">
+      <c r="I12" s="62">
         <v>42787</v>
       </c>
       <c r="J12" s="19">
@@ -2261,8 +2261,8 @@
       <c r="B13" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="56"/>
-      <c r="D13" s="58" t="s">
+      <c r="C13" s="79"/>
+      <c r="D13" s="72" t="s">
         <v>26</v>
       </c>
       <c r="E13" s="18" t="s">
@@ -2275,7 +2275,7 @@
       <c r="H13" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="I13" s="72"/>
+      <c r="I13" s="63"/>
       <c r="J13" s="19">
         <v>42804</v>
       </c>
@@ -2297,8 +2297,8 @@
       <c r="B14" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="56"/>
-      <c r="D14" s="59"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="73"/>
       <c r="E14" s="18" t="s">
         <v>27</v>
       </c>
@@ -2309,7 +2309,7 @@
       <c r="H14" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="I14" s="72"/>
+      <c r="I14" s="63"/>
       <c r="J14" s="19">
         <v>42797</v>
       </c>
@@ -2331,8 +2331,8 @@
       <c r="B15" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="56"/>
-      <c r="D15" s="59"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="73"/>
       <c r="E15" s="18" t="s">
         <v>245</v>
       </c>
@@ -2343,7 +2343,7 @@
       <c r="H15" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="I15" s="72"/>
+      <c r="I15" s="63"/>
       <c r="J15" s="19">
         <v>42797</v>
       </c>
@@ -2365,8 +2365,8 @@
       <c r="B16" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="56"/>
-      <c r="D16" s="58" t="s">
+      <c r="C16" s="79"/>
+      <c r="D16" s="72" t="s">
         <v>28</v>
       </c>
       <c r="E16" s="7" t="s">
@@ -2381,10 +2381,10 @@
       <c r="H16" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="I16" s="68">
+      <c r="I16" s="62">
         <v>42787</v>
       </c>
-      <c r="J16" s="71" t="s">
+      <c r="J16" s="59" t="s">
         <v>238</v>
       </c>
       <c r="K16" s="13" t="s">
@@ -2405,8 +2405,8 @@
       <c r="B17" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="56"/>
-      <c r="D17" s="59"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="73"/>
       <c r="E17" s="7" t="s">
         <v>4</v>
       </c>
@@ -2417,8 +2417,8 @@
       <c r="H17" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="I17" s="69"/>
-      <c r="J17" s="69"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="60"/>
       <c r="K17" s="13" t="s">
         <v>89</v>
       </c>
@@ -2437,8 +2437,8 @@
       <c r="B18" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="56"/>
-      <c r="D18" s="59"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="73"/>
       <c r="E18" s="7" t="s">
         <v>200</v>
       </c>
@@ -2449,8 +2449,8 @@
       <c r="H18" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="I18" s="69"/>
-      <c r="J18" s="69"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
       <c r="K18" s="13" t="s">
         <v>89</v>
       </c>
@@ -2466,16 +2466,16 @@
       <c r="B19" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="56"/>
-      <c r="D19" s="59"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="73"/>
       <c r="E19" s="7" t="s">
         <v>201</v>
       </c>
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
       <c r="H19" s="15"/>
-      <c r="I19" s="69"/>
-      <c r="J19" s="69"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="60"/>
       <c r="K19" s="13" t="s">
         <v>89</v>
       </c>
@@ -2494,8 +2494,8 @@
       <c r="B20" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="56"/>
-      <c r="D20" s="60"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="74"/>
       <c r="E20" s="7" t="s">
         <v>10</v>
       </c>
@@ -2506,8 +2506,8 @@
       <c r="H20" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="I20" s="70"/>
-      <c r="J20" s="70"/>
+      <c r="I20" s="61"/>
+      <c r="J20" s="61"/>
       <c r="K20" s="13" t="s">
         <v>89</v>
       </c>
@@ -2526,7 +2526,7 @@
       <c r="B21" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="56"/>
+      <c r="C21" s="79"/>
       <c r="D21" s="7" t="s">
         <v>29</v>
       </c>
@@ -2566,7 +2566,7 @@
       <c r="B22" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="55" t="s">
+      <c r="C22" s="66" t="s">
         <v>186</v>
       </c>
       <c r="D22" s="7" t="s">
@@ -2604,7 +2604,7 @@
       <c r="B23" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="57"/>
+      <c r="C23" s="80"/>
       <c r="D23" s="7" t="s">
         <v>241</v>
       </c>
@@ -2640,7 +2640,7 @@
       <c r="B24" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="55" t="s">
+      <c r="C24" s="66" t="s">
         <v>178</v>
       </c>
       <c r="D24" s="7" t="s">
@@ -2681,7 +2681,7 @@
       <c r="B25" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="56"/>
+      <c r="C25" s="79"/>
       <c r="D25" s="7" t="s">
         <v>53</v>
       </c>
@@ -2718,7 +2718,7 @@
       <c r="B26" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="56"/>
+      <c r="C26" s="79"/>
       <c r="D26" s="7" t="s">
         <v>56</v>
       </c>
@@ -2757,7 +2757,7 @@
       <c r="B27" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="56"/>
+      <c r="C27" s="79"/>
       <c r="D27" s="7" t="s">
         <v>47</v>
       </c>
@@ -2792,7 +2792,7 @@
       <c r="B28" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="56"/>
+      <c r="C28" s="79"/>
       <c r="D28" s="7" t="s">
         <v>59</v>
       </c>
@@ -2831,7 +2831,7 @@
       <c r="B29" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="56"/>
+      <c r="C29" s="79"/>
       <c r="D29" s="7" t="s">
         <v>171</v>
       </c>
@@ -2843,7 +2843,7 @@
       <c r="H29" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="I29" s="73">
+      <c r="I29" s="67">
         <v>42791</v>
       </c>
       <c r="J29" s="19">
@@ -2866,7 +2866,7 @@
       <c r="B30" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="56"/>
+      <c r="C30" s="79"/>
       <c r="D30" s="7" t="s">
         <v>61</v>
       </c>
@@ -2878,7 +2878,7 @@
       <c r="H30" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="I30" s="74"/>
+      <c r="I30" s="68"/>
       <c r="J30" s="13" t="s">
         <v>208</v>
       </c>
@@ -2899,7 +2899,7 @@
       <c r="B31" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="56"/>
+      <c r="C31" s="79"/>
       <c r="D31" s="29" t="s">
         <v>62</v>
       </c>
@@ -2934,8 +2934,8 @@
       <c r="B32" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C32" s="56"/>
-      <c r="D32" s="58" t="s">
+      <c r="C32" s="79"/>
+      <c r="D32" s="72" t="s">
         <v>65</v>
       </c>
       <c r="E32" s="7" t="s">
@@ -2948,16 +2948,16 @@
       <c r="H32" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="I32" s="71" t="s">
+      <c r="I32" s="59" t="s">
         <v>141</v>
       </c>
-      <c r="J32" s="68">
+      <c r="J32" s="62">
         <v>42804</v>
       </c>
       <c r="K32" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="L32" s="71" t="s">
+      <c r="L32" s="59" t="s">
         <v>209</v>
       </c>
       <c r="M32" s="13"/>
@@ -2971,8 +2971,8 @@
       <c r="B33" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="56"/>
-      <c r="D33" s="59"/>
+      <c r="C33" s="79"/>
+      <c r="D33" s="73"/>
       <c r="E33" s="7" t="s">
         <v>236</v>
       </c>
@@ -2983,12 +2983,12 @@
       <c r="H33" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="I33" s="69"/>
-      <c r="J33" s="69"/>
+      <c r="I33" s="60"/>
+      <c r="J33" s="60"/>
       <c r="K33" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="L33" s="69"/>
+      <c r="L33" s="60"/>
       <c r="M33" s="13"/>
       <c r="N33" s="13"/>
     </row>
@@ -3000,8 +3000,8 @@
       <c r="B34" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C34" s="56"/>
-      <c r="D34" s="59"/>
+      <c r="C34" s="79"/>
+      <c r="D34" s="73"/>
       <c r="E34" s="7" t="s">
         <v>48</v>
       </c>
@@ -3012,12 +3012,12 @@
       <c r="H34" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="I34" s="69"/>
-      <c r="J34" s="69"/>
+      <c r="I34" s="60"/>
+      <c r="J34" s="60"/>
       <c r="K34" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="L34" s="69"/>
+      <c r="L34" s="60"/>
       <c r="M34" s="13"/>
       <c r="N34" s="13"/>
     </row>
@@ -3029,8 +3029,8 @@
       <c r="B35" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="56"/>
-      <c r="D35" s="60"/>
+      <c r="C35" s="79"/>
+      <c r="D35" s="74"/>
       <c r="E35" s="7" t="s">
         <v>11</v>
       </c>
@@ -3041,12 +3041,12 @@
       <c r="H35" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="I35" s="70"/>
-      <c r="J35" s="70"/>
+      <c r="I35" s="61"/>
+      <c r="J35" s="61"/>
       <c r="K35" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="L35" s="70"/>
+      <c r="L35" s="61"/>
       <c r="M35" s="13"/>
       <c r="N35" s="13"/>
     </row>
@@ -3058,7 +3058,7 @@
       <c r="B36" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="C36" s="55" t="s">
+      <c r="C36" s="66" t="s">
         <v>180</v>
       </c>
       <c r="D36" s="7" t="s">
@@ -3072,16 +3072,16 @@
       <c r="H36" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="I36" s="68">
+      <c r="I36" s="62">
         <v>42791</v>
       </c>
-      <c r="J36" s="68">
+      <c r="J36" s="62">
         <v>42804</v>
       </c>
       <c r="K36" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="L36" s="71" t="s">
+      <c r="L36" s="59" t="s">
         <v>218</v>
       </c>
       <c r="M36" s="13"/>
@@ -3095,7 +3095,7 @@
       <c r="B37" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="C37" s="56"/>
+      <c r="C37" s="79"/>
       <c r="D37" s="7" t="s">
         <v>220</v>
       </c>
@@ -3107,12 +3107,12 @@
       <c r="H37" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="I37" s="69"/>
-      <c r="J37" s="72"/>
+      <c r="I37" s="60"/>
+      <c r="J37" s="63"/>
       <c r="K37" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="L37" s="69"/>
+      <c r="L37" s="60"/>
       <c r="M37" s="13"/>
       <c r="N37" s="13"/>
     </row>
@@ -3124,7 +3124,7 @@
       <c r="B38" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="C38" s="56"/>
+      <c r="C38" s="79"/>
       <c r="D38" s="7" t="s">
         <v>221</v>
       </c>
@@ -3136,12 +3136,12 @@
       <c r="H38" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="I38" s="69"/>
-      <c r="J38" s="72"/>
+      <c r="I38" s="60"/>
+      <c r="J38" s="63"/>
       <c r="K38" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="L38" s="69"/>
+      <c r="L38" s="60"/>
       <c r="M38" s="13"/>
       <c r="N38" s="13"/>
     </row>
@@ -3153,7 +3153,7 @@
       <c r="B39" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="C39" s="56"/>
+      <c r="C39" s="79"/>
       <c r="D39" s="29" t="s">
         <v>219</v>
       </c>
@@ -3165,12 +3165,12 @@
       <c r="H39" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="I39" s="69"/>
-      <c r="J39" s="72"/>
+      <c r="I39" s="60"/>
+      <c r="J39" s="63"/>
       <c r="K39" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="L39" s="69"/>
+      <c r="L39" s="60"/>
       <c r="M39" s="27"/>
       <c r="N39" s="27"/>
     </row>
@@ -3182,7 +3182,7 @@
       <c r="B40" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="C40" s="56"/>
+      <c r="C40" s="79"/>
       <c r="D40" s="7" t="s">
         <v>159</v>
       </c>
@@ -3194,12 +3194,12 @@
       <c r="H40" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="I40" s="69"/>
-      <c r="J40" s="72"/>
+      <c r="I40" s="60"/>
+      <c r="J40" s="63"/>
       <c r="K40" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="L40" s="69"/>
+      <c r="L40" s="60"/>
       <c r="M40" s="13"/>
       <c r="N40" s="13"/>
     </row>
@@ -3211,7 +3211,7 @@
       <c r="B41" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="C41" s="56"/>
+      <c r="C41" s="79"/>
       <c r="D41" s="7" t="s">
         <v>222</v>
       </c>
@@ -3223,12 +3223,12 @@
       <c r="H41" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="I41" s="69"/>
-      <c r="J41" s="72"/>
+      <c r="I41" s="60"/>
+      <c r="J41" s="63"/>
       <c r="K41" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="L41" s="69"/>
+      <c r="L41" s="60"/>
       <c r="M41" s="13"/>
       <c r="N41" s="13"/>
     </row>
@@ -3240,7 +3240,7 @@
       <c r="B42" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="C42" s="56"/>
+      <c r="C42" s="79"/>
       <c r="D42" s="7" t="s">
         <v>223</v>
       </c>
@@ -3254,12 +3254,12 @@
       <c r="H42" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="I42" s="69"/>
-      <c r="J42" s="72"/>
+      <c r="I42" s="60"/>
+      <c r="J42" s="63"/>
       <c r="K42" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="L42" s="69"/>
+      <c r="L42" s="60"/>
       <c r="M42" s="13"/>
       <c r="N42" s="13"/>
     </row>
@@ -3271,7 +3271,7 @@
       <c r="B43" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="C43" s="57"/>
+      <c r="C43" s="80"/>
       <c r="D43" s="7" t="s">
         <v>224</v>
       </c>
@@ -3285,12 +3285,12 @@
       <c r="H43" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="I43" s="70"/>
-      <c r="J43" s="75"/>
+      <c r="I43" s="61"/>
+      <c r="J43" s="64"/>
       <c r="K43" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="L43" s="70"/>
+      <c r="L43" s="61"/>
       <c r="M43" s="13"/>
       <c r="N43" s="13"/>
     </row>
@@ -3302,7 +3302,7 @@
       <c r="B44" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="C44" s="55" t="s">
+      <c r="C44" s="66" t="s">
         <v>187</v>
       </c>
       <c r="D44" s="7" t="s">
@@ -3316,7 +3316,7 @@
       <c r="H44" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="I44" s="71" t="s">
+      <c r="I44" s="59" t="s">
         <v>144</v>
       </c>
       <c r="J44" s="19">
@@ -3338,7 +3338,7 @@
       <c r="B45" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="C45" s="56"/>
+      <c r="C45" s="79"/>
       <c r="D45" s="7" t="s">
         <v>72</v>
       </c>
@@ -3350,7 +3350,7 @@
       <c r="H45" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="I45" s="70"/>
+      <c r="I45" s="61"/>
       <c r="J45" s="19">
         <v>42815</v>
       </c>
@@ -3370,7 +3370,7 @@
       <c r="B46" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="C46" s="56"/>
+      <c r="C46" s="79"/>
       <c r="D46" s="7" t="s">
         <v>73</v>
       </c>
@@ -3384,7 +3384,7 @@
       <c r="H46" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="I46" s="68">
+      <c r="I46" s="62">
         <v>42791</v>
       </c>
       <c r="J46" s="13" t="s">
@@ -3406,7 +3406,7 @@
       <c r="B47" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="C47" s="56"/>
+      <c r="C47" s="79"/>
       <c r="D47" s="7" t="s">
         <v>192</v>
       </c>
@@ -3420,7 +3420,7 @@
       <c r="H47" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="I47" s="70"/>
+      <c r="I47" s="61"/>
       <c r="J47" s="13" t="s">
         <v>234</v>
       </c>
@@ -3440,7 +3440,7 @@
       <c r="B48" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="C48" s="56"/>
+      <c r="C48" s="79"/>
       <c r="D48" s="7" t="s">
         <v>69</v>
       </c>
@@ -3474,7 +3474,7 @@
       <c r="B49" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="C49" s="56"/>
+      <c r="C49" s="79"/>
       <c r="D49" s="7" t="s">
         <v>133</v>
       </c>
@@ -3508,7 +3508,7 @@
       <c r="B50" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="C50" s="57"/>
+      <c r="C50" s="80"/>
       <c r="D50" s="7" t="s">
         <v>134</v>
       </c>
@@ -3539,10 +3539,10 @@
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="B51" s="55" t="s">
+      <c r="B51" s="66" t="s">
         <v>77</v>
       </c>
-      <c r="C51" s="55" t="s">
+      <c r="C51" s="66" t="s">
         <v>188</v>
       </c>
       <c r="D51" s="7" t="s">
@@ -3580,8 +3580,8 @@
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="B52" s="57"/>
-      <c r="C52" s="57"/>
+      <c r="B52" s="80"/>
+      <c r="C52" s="80"/>
       <c r="D52" s="7" t="s">
         <v>120</v>
       </c>
@@ -3690,7 +3690,7 @@
       <c r="B55" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="C55" s="55" t="s">
+      <c r="C55" s="66" t="s">
         <v>182</v>
       </c>
       <c r="D55" s="7" t="s">
@@ -3727,7 +3727,7 @@
       <c r="B56" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="C56" s="56"/>
+      <c r="C56" s="79"/>
       <c r="D56" s="7" t="s">
         <v>84</v>
       </c>
@@ -3799,7 +3799,7 @@
       <c r="B58" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="C58" s="55" t="s">
+      <c r="C58" s="66" t="s">
         <v>177</v>
       </c>
       <c r="D58" s="7" t="s">
@@ -3813,19 +3813,19 @@
       <c r="H58" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="I58" s="68">
+      <c r="I58" s="62">
         <v>42791</v>
       </c>
-      <c r="J58" s="68" t="s">
+      <c r="J58" s="62" t="s">
         <v>230</v>
       </c>
       <c r="K58" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="L58" s="71" t="s">
+      <c r="L58" s="59" t="s">
         <v>167</v>
       </c>
-      <c r="M58" s="71"/>
+      <c r="M58" s="59"/>
       <c r="N58" s="13"/>
     </row>
     <row r="59" spans="1:14" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3836,7 +3836,7 @@
       <c r="B59" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="C59" s="56"/>
+      <c r="C59" s="79"/>
       <c r="D59" s="7" t="s">
         <v>8</v>
       </c>
@@ -3848,13 +3848,13 @@
       <c r="H59" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="I59" s="69"/>
-      <c r="J59" s="69"/>
+      <c r="I59" s="60"/>
+      <c r="J59" s="60"/>
       <c r="K59" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="L59" s="69"/>
-      <c r="M59" s="69"/>
+      <c r="L59" s="60"/>
+      <c r="M59" s="60"/>
       <c r="N59" s="13"/>
     </row>
     <row r="60" spans="1:14" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3865,7 +3865,7 @@
       <c r="B60" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="C60" s="56"/>
+      <c r="C60" s="79"/>
       <c r="D60" s="7" t="s">
         <v>93</v>
       </c>
@@ -3879,13 +3879,13 @@
       <c r="H60" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="I60" s="69"/>
-      <c r="J60" s="69"/>
+      <c r="I60" s="60"/>
+      <c r="J60" s="60"/>
       <c r="K60" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="L60" s="69"/>
-      <c r="M60" s="69"/>
+      <c r="L60" s="60"/>
+      <c r="M60" s="60"/>
       <c r="N60" s="13"/>
     </row>
     <row r="61" spans="1:14" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3896,7 +3896,7 @@
       <c r="B61" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="C61" s="56"/>
+      <c r="C61" s="79"/>
       <c r="D61" s="7" t="s">
         <v>9</v>
       </c>
@@ -3908,13 +3908,13 @@
       <c r="H61" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="I61" s="69"/>
-      <c r="J61" s="69"/>
+      <c r="I61" s="60"/>
+      <c r="J61" s="60"/>
       <c r="K61" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="L61" s="69"/>
-      <c r="M61" s="69"/>
+      <c r="L61" s="60"/>
+      <c r="M61" s="60"/>
       <c r="N61" s="13"/>
     </row>
     <row r="62" spans="1:14" s="16" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3925,7 +3925,7 @@
       <c r="B62" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="C62" s="56"/>
+      <c r="C62" s="79"/>
       <c r="D62" s="7" t="s">
         <v>94</v>
       </c>
@@ -3937,13 +3937,13 @@
       <c r="H62" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="I62" s="69"/>
-      <c r="J62" s="69"/>
+      <c r="I62" s="60"/>
+      <c r="J62" s="60"/>
       <c r="K62" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="L62" s="69"/>
-      <c r="M62" s="69"/>
+      <c r="L62" s="60"/>
+      <c r="M62" s="60"/>
       <c r="N62" s="13"/>
     </row>
     <row r="63" spans="1:14" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3954,7 +3954,7 @@
       <c r="B63" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="C63" s="56"/>
+      <c r="C63" s="79"/>
       <c r="D63" s="7" t="s">
         <v>95</v>
       </c>
@@ -3966,13 +3966,13 @@
       <c r="H63" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="I63" s="69"/>
-      <c r="J63" s="69"/>
+      <c r="I63" s="60"/>
+      <c r="J63" s="60"/>
       <c r="K63" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="L63" s="69"/>
-      <c r="M63" s="69"/>
+      <c r="L63" s="60"/>
+      <c r="M63" s="60"/>
       <c r="N63" s="13"/>
     </row>
     <row r="64" spans="1:14" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3983,7 +3983,7 @@
       <c r="B64" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="C64" s="57"/>
+      <c r="C64" s="80"/>
       <c r="D64" s="7" t="s">
         <v>246</v>
       </c>
@@ -3995,13 +3995,13 @@
       <c r="H64" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="I64" s="70"/>
-      <c r="J64" s="70"/>
+      <c r="I64" s="61"/>
+      <c r="J64" s="61"/>
       <c r="K64" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="L64" s="70"/>
-      <c r="M64" s="70"/>
+      <c r="L64" s="61"/>
+      <c r="M64" s="61"/>
       <c r="N64" s="13"/>
     </row>
     <row r="65" spans="1:14" s="16" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4012,7 +4012,7 @@
       <c r="B65" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="C65" s="55" t="s">
+      <c r="C65" s="66" t="s">
         <v>180</v>
       </c>
       <c r="D65" s="7" t="s">
@@ -4029,13 +4029,13 @@
       <c r="I65" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="J65" s="68">
+      <c r="J65" s="62">
         <v>42797</v>
       </c>
       <c r="K65" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="L65" s="71" t="s">
+      <c r="L65" s="59" t="s">
         <v>229</v>
       </c>
       <c r="M65" s="13"/>
@@ -4049,7 +4049,7 @@
       <c r="B66" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="C66" s="56"/>
+      <c r="C66" s="79"/>
       <c r="D66" s="7" t="s">
         <v>225</v>
       </c>
@@ -4064,11 +4064,11 @@
       <c r="I66" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="J66" s="72"/>
+      <c r="J66" s="63"/>
       <c r="K66" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="L66" s="69"/>
+      <c r="L66" s="60"/>
       <c r="M66" s="13"/>
       <c r="N66" s="13"/>
     </row>
@@ -4080,7 +4080,7 @@
       <c r="B67" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="C67" s="56"/>
+      <c r="C67" s="79"/>
       <c r="D67" s="7" t="s">
         <v>226</v>
       </c>
@@ -4095,11 +4095,11 @@
       <c r="I67" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="J67" s="72"/>
+      <c r="J67" s="63"/>
       <c r="K67" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="L67" s="69"/>
+      <c r="L67" s="60"/>
       <c r="M67" s="13"/>
       <c r="N67" s="13"/>
     </row>
@@ -4111,7 +4111,7 @@
       <c r="B68" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="C68" s="56"/>
+      <c r="C68" s="79"/>
       <c r="D68" s="7" t="s">
         <v>168</v>
       </c>
@@ -4126,11 +4126,11 @@
       <c r="I68" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="J68" s="72"/>
+      <c r="J68" s="63"/>
       <c r="K68" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="L68" s="69"/>
+      <c r="L68" s="60"/>
       <c r="M68" s="13"/>
       <c r="N68" s="13"/>
     </row>
@@ -4142,7 +4142,7 @@
       <c r="B69" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="C69" s="56"/>
+      <c r="C69" s="79"/>
       <c r="D69" s="7" t="s">
         <v>227</v>
       </c>
@@ -4159,11 +4159,11 @@
       <c r="I69" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="J69" s="72"/>
+      <c r="J69" s="63"/>
       <c r="K69" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="L69" s="69"/>
+      <c r="L69" s="60"/>
       <c r="M69" s="13"/>
       <c r="N69" s="13"/>
     </row>
@@ -4175,7 +4175,7 @@
       <c r="B70" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="C70" s="57"/>
+      <c r="C70" s="80"/>
       <c r="D70" s="7" t="s">
         <v>12</v>
       </c>
@@ -4190,11 +4190,11 @@
       <c r="I70" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="J70" s="75"/>
+      <c r="J70" s="64"/>
       <c r="K70" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="L70" s="70"/>
+      <c r="L70" s="61"/>
       <c r="M70" s="13"/>
       <c r="N70" s="13"/>
     </row>
@@ -4206,7 +4206,7 @@
       <c r="B71" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="C71" s="55" t="s">
+      <c r="C71" s="66" t="s">
         <v>184</v>
       </c>
       <c r="D71" s="7" t="s">
@@ -4223,13 +4223,13 @@
       <c r="I71" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="J71" s="68">
+      <c r="J71" s="62">
         <v>42804</v>
       </c>
       <c r="K71" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="L71" s="55" t="s">
+      <c r="L71" s="66" t="s">
         <v>235</v>
       </c>
       <c r="M71" s="13"/>
@@ -4243,7 +4243,7 @@
       <c r="B72" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="C72" s="56"/>
+      <c r="C72" s="79"/>
       <c r="D72" s="7" t="s">
         <v>170</v>
       </c>
@@ -4258,11 +4258,11 @@
       <c r="I72" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="J72" s="69"/>
+      <c r="J72" s="60"/>
       <c r="K72" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="L72" s="69"/>
+      <c r="L72" s="60"/>
       <c r="M72" s="13"/>
       <c r="N72" s="13"/>
     </row>
@@ -4274,7 +4274,7 @@
       <c r="B73" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="C73" s="57"/>
+      <c r="C73" s="80"/>
       <c r="D73" s="7" t="s">
         <v>112</v>
       </c>
@@ -4289,11 +4289,11 @@
       <c r="I73" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="J73" s="70"/>
+      <c r="J73" s="61"/>
       <c r="K73" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="L73" s="70"/>
+      <c r="L73" s="61"/>
       <c r="M73" s="13"/>
       <c r="N73" s="13"/>
     </row>
@@ -4302,10 +4302,10 @@
         <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
-      <c r="B74" s="55" t="s">
+      <c r="B74" s="66" t="s">
         <v>116</v>
       </c>
-      <c r="C74" s="55" t="s">
+      <c r="C74" s="66" t="s">
         <v>180</v>
       </c>
       <c r="D74" s="7" t="s">
@@ -4324,11 +4324,11 @@
       <c r="I74" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="J74" s="71"/>
+      <c r="J74" s="59"/>
       <c r="K74" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="L74" s="71" t="s">
+      <c r="L74" s="59" t="s">
         <v>152</v>
       </c>
       <c r="M74" s="13"/>
@@ -4339,8 +4339,8 @@
         <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
-      <c r="B75" s="56"/>
-      <c r="C75" s="56"/>
+      <c r="B75" s="79"/>
+      <c r="C75" s="79"/>
       <c r="D75" s="7" t="s">
         <v>198</v>
       </c>
@@ -4359,11 +4359,11 @@
       <c r="I75" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="J75" s="69"/>
+      <c r="J75" s="60"/>
       <c r="K75" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="L75" s="69"/>
+      <c r="L75" s="60"/>
       <c r="M75" s="13"/>
       <c r="N75" s="13"/>
     </row>
@@ -4372,8 +4372,8 @@
         <f>1+A75</f>
         <v>#REF!</v>
       </c>
-      <c r="B76" s="57"/>
-      <c r="C76" s="57"/>
+      <c r="B76" s="80"/>
+      <c r="C76" s="80"/>
       <c r="D76" s="7" t="s">
         <v>147</v>
       </c>
@@ -4390,11 +4390,11 @@
       <c r="I76" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="J76" s="70"/>
+      <c r="J76" s="61"/>
       <c r="K76" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="L76" s="70"/>
+      <c r="L76" s="61"/>
       <c r="M76" s="13"/>
       <c r="N76" s="13"/>
     </row>
@@ -4406,7 +4406,7 @@
       <c r="B77" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="C77" s="55" t="s">
+      <c r="C77" s="66" t="s">
         <v>183</v>
       </c>
       <c r="D77" s="7" t="s">
@@ -4421,16 +4421,16 @@
       <c r="I77" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="J77" s="76">
+      <c r="J77" s="65">
         <v>42815</v>
       </c>
       <c r="K77" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="L77" s="71" t="s">
+      <c r="L77" s="59" t="s">
         <v>161</v>
       </c>
-      <c r="M77" s="68"/>
+      <c r="M77" s="62"/>
       <c r="N77" s="13"/>
     </row>
     <row r="78" spans="1:14" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4441,7 +4441,7 @@
       <c r="B78" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="C78" s="56"/>
+      <c r="C78" s="79"/>
       <c r="D78" s="7" t="s">
         <v>123</v>
       </c>
@@ -4454,12 +4454,12 @@
       <c r="I78" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="J78" s="69"/>
+      <c r="J78" s="60"/>
       <c r="K78" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="L78" s="69"/>
-      <c r="M78" s="72"/>
+      <c r="L78" s="60"/>
+      <c r="M78" s="63"/>
       <c r="N78" s="13"/>
     </row>
     <row r="79" spans="1:14" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4470,7 +4470,7 @@
       <c r="B79" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="C79" s="56"/>
+      <c r="C79" s="79"/>
       <c r="D79" s="7" t="s">
         <v>197</v>
       </c>
@@ -4483,12 +4483,12 @@
       <c r="I79" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="J79" s="69"/>
+      <c r="J79" s="60"/>
       <c r="K79" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="L79" s="69"/>
-      <c r="M79" s="72"/>
+      <c r="L79" s="60"/>
+      <c r="M79" s="63"/>
       <c r="N79" s="13"/>
     </row>
     <row r="80" spans="1:14" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4499,7 +4499,7 @@
       <c r="B80" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="C80" s="57"/>
+      <c r="C80" s="80"/>
       <c r="D80" s="7" t="s">
         <v>199</v>
       </c>
@@ -4512,12 +4512,12 @@
       <c r="I80" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="J80" s="70"/>
+      <c r="J80" s="61"/>
       <c r="K80" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="L80" s="70"/>
-      <c r="M80" s="75"/>
+      <c r="L80" s="61"/>
+      <c r="M80" s="64"/>
       <c r="N80" s="13"/>
     </row>
     <row r="81" spans="1:14" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6355,12 +6355,38 @@
     <filterColumn colId="3" showButton="0"/>
   </autoFilter>
   <mergeCells count="50">
-    <mergeCell ref="J2:J7"/>
-    <mergeCell ref="L36:L43"/>
-    <mergeCell ref="J36:J43"/>
-    <mergeCell ref="L65:L70"/>
-    <mergeCell ref="J65:J70"/>
-    <mergeCell ref="J58:J64"/>
+    <mergeCell ref="C77:C80"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="C74:C76"/>
+    <mergeCell ref="C24:C35"/>
+    <mergeCell ref="C2:C8"/>
+    <mergeCell ref="C36:C43"/>
+    <mergeCell ref="C44:C50"/>
+    <mergeCell ref="C11:C21"/>
+    <mergeCell ref="D32:D35"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="C58:C64"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="C65:C70"/>
+    <mergeCell ref="C71:C73"/>
+    <mergeCell ref="F2:F7"/>
+    <mergeCell ref="D16:D20"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="I58:I64"/>
+    <mergeCell ref="I36:I43"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="I12:I15"/>
+    <mergeCell ref="I16:I20"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="I32:I35"/>
     <mergeCell ref="M58:M64"/>
     <mergeCell ref="M77:M80"/>
     <mergeCell ref="J77:J80"/>
@@ -6373,38 +6399,12 @@
     <mergeCell ref="L58:L64"/>
     <mergeCell ref="L74:L76"/>
     <mergeCell ref="L77:L80"/>
-    <mergeCell ref="I58:I64"/>
-    <mergeCell ref="I36:I43"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="I12:I15"/>
-    <mergeCell ref="I16:I20"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="I32:I35"/>
-    <mergeCell ref="F2:F7"/>
-    <mergeCell ref="D16:D20"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="C58:C64"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="C65:C70"/>
-    <mergeCell ref="C71:C73"/>
-    <mergeCell ref="C2:C8"/>
-    <mergeCell ref="C36:C43"/>
-    <mergeCell ref="C44:C50"/>
-    <mergeCell ref="C11:C21"/>
-    <mergeCell ref="D32:D35"/>
-    <mergeCell ref="C77:C80"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="C74:C76"/>
-    <mergeCell ref="C24:C35"/>
+    <mergeCell ref="J2:J7"/>
+    <mergeCell ref="L36:L43"/>
+    <mergeCell ref="J36:J43"/>
+    <mergeCell ref="L65:L70"/>
+    <mergeCell ref="J65:J70"/>
+    <mergeCell ref="J58:J64"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6418,10 +6418,10 @@
   <dimension ref="A1:Q161"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="H37" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G40" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J2" sqref="J2:J7"/>
+      <selection pane="bottomRight" activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="41" defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6454,10 +6454,10 @@
       <c r="C1" s="39" t="s">
         <v>189</v>
       </c>
-      <c r="D1" s="64" t="s">
+      <c r="D1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="65"/>
+      <c r="E1" s="76"/>
       <c r="F1" s="3" t="s">
         <v>30</v>
       </c>
@@ -6493,23 +6493,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="9" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" s="9" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="66" t="s">
         <v>184</v>
       </c>
-      <c r="D2" s="66" t="s">
+      <c r="D2" s="77" t="s">
         <v>17</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="61" t="s">
+      <c r="F2" s="69" t="s">
         <v>32</v>
       </c>
       <c r="G2" s="12"/>
@@ -6519,7 +6519,7 @@
       <c r="I2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J2" s="77">
+      <c r="J2" s="56">
         <v>42804</v>
       </c>
       <c r="K2" s="49"/>
@@ -6542,12 +6542,12 @@
       <c r="B3" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="67"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="78"/>
       <c r="E3" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="63"/>
+      <c r="F3" s="70"/>
       <c r="G3" s="12"/>
       <c r="H3" s="2" t="s">
         <v>106</v>
@@ -6555,7 +6555,7 @@
       <c r="I3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J3" s="78"/>
+      <c r="J3" s="57"/>
       <c r="K3" s="50"/>
       <c r="L3" s="2" t="s">
         <v>89</v>
@@ -6576,14 +6576,14 @@
       <c r="B4" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="56"/>
-      <c r="D4" s="58" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="72" t="s">
         <v>21</v>
       </c>
       <c r="E4" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="63"/>
+      <c r="F4" s="70"/>
       <c r="G4" s="12" t="s">
         <v>150</v>
       </c>
@@ -6593,7 +6593,7 @@
       <c r="I4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="78"/>
+      <c r="J4" s="57"/>
       <c r="K4" s="50"/>
       <c r="L4" s="13" t="s">
         <v>125</v>
@@ -6614,12 +6614,12 @@
       <c r="B5" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="56"/>
-      <c r="D5" s="59"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="73"/>
       <c r="E5" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="F5" s="63"/>
+      <c r="F5" s="70"/>
       <c r="G5" s="12"/>
       <c r="H5" s="2" t="s">
         <v>106</v>
@@ -6627,7 +6627,7 @@
       <c r="I5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="57"/>
       <c r="K5" s="50"/>
       <c r="L5" s="13" t="s">
         <v>125</v>
@@ -6648,12 +6648,12 @@
       <c r="B6" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="56"/>
-      <c r="D6" s="59"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="73"/>
       <c r="E6" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="F6" s="63"/>
+      <c r="F6" s="70"/>
       <c r="G6" s="12" t="s">
         <v>151</v>
       </c>
@@ -6663,7 +6663,7 @@
       <c r="I6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="78"/>
+      <c r="J6" s="57"/>
       <c r="K6" s="50"/>
       <c r="L6" s="13" t="s">
         <v>125</v>
@@ -6684,12 +6684,12 @@
       <c r="B7" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="56"/>
-      <c r="D7" s="60"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="74"/>
       <c r="E7" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="F7" s="62"/>
+      <c r="F7" s="71"/>
       <c r="G7" s="12"/>
       <c r="H7" s="2" t="s">
         <v>106</v>
@@ -6697,7 +6697,7 @@
       <c r="I7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J7" s="79"/>
+      <c r="J7" s="58"/>
       <c r="K7" s="51"/>
       <c r="L7" s="13" t="s">
         <v>125</v>
@@ -6721,13 +6721,13 @@
       <c r="C8" s="36" t="s">
         <v>185</v>
       </c>
-      <c r="D8" s="58" t="s">
+      <c r="D8" s="72" t="s">
         <v>24</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="F8" s="61" t="s">
+      <c r="F8" s="69" t="s">
         <v>31</v>
       </c>
       <c r="G8" s="12"/>
@@ -6765,11 +6765,11 @@
       <c r="C9" s="41" t="s">
         <v>185</v>
       </c>
-      <c r="D9" s="60"/>
+      <c r="D9" s="74"/>
       <c r="E9" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="F9" s="62"/>
+      <c r="F9" s="71"/>
       <c r="G9" s="12"/>
       <c r="H9" s="2" t="s">
         <v>102</v>
@@ -6802,7 +6802,7 @@
       <c r="B10" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="55" t="s">
+      <c r="C10" s="66" t="s">
         <v>179</v>
       </c>
       <c r="D10" s="29" t="s">
@@ -6842,7 +6842,7 @@
       <c r="B11" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="56"/>
+      <c r="C11" s="79"/>
       <c r="D11" s="7" t="s">
         <v>25</v>
       </c>
@@ -6856,7 +6856,7 @@
       <c r="H11" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="I11" s="68">
+      <c r="I11" s="62">
         <v>42787</v>
       </c>
       <c r="J11" s="19">
@@ -6882,8 +6882,8 @@
       <c r="B12" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="56"/>
-      <c r="D12" s="58" t="s">
+      <c r="C12" s="79"/>
+      <c r="D12" s="72" t="s">
         <v>26</v>
       </c>
       <c r="E12" s="18" t="s">
@@ -6896,7 +6896,7 @@
       <c r="H12" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="I12" s="72"/>
+      <c r="I12" s="63"/>
       <c r="J12" s="19">
         <v>42804</v>
       </c>
@@ -6920,8 +6920,8 @@
       <c r="B13" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="56"/>
-      <c r="D13" s="59"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="73"/>
       <c r="E13" s="18" t="s">
         <v>27</v>
       </c>
@@ -6932,7 +6932,7 @@
       <c r="H13" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="I13" s="72"/>
+      <c r="I13" s="63"/>
       <c r="J13" s="19">
         <v>42797</v>
       </c>
@@ -6956,8 +6956,8 @@
       <c r="B14" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="56"/>
-      <c r="D14" s="59"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="73"/>
       <c r="E14" s="18" t="s">
         <v>245</v>
       </c>
@@ -6968,7 +6968,7 @@
       <c r="H14" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="I14" s="72"/>
+      <c r="I14" s="63"/>
       <c r="J14" s="19">
         <v>42797</v>
       </c>
@@ -6984,7 +6984,7 @@
       <c r="P14" s="13"/>
       <c r="Q14" s="13"/>
     </row>
-    <row r="15" spans="1:17" s="16" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" s="16" customFormat="1" ht="60.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="e">
         <f>1+#REF!</f>
         <v>#REF!</v>
@@ -6992,8 +6992,8 @@
       <c r="B15" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="56"/>
-      <c r="D15" s="58" t="s">
+      <c r="C15" s="79"/>
+      <c r="D15" s="72" t="s">
         <v>28</v>
       </c>
       <c r="E15" s="7" t="s">
@@ -7008,10 +7008,10 @@
       <c r="H15" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="I15" s="68">
+      <c r="I15" s="62">
         <v>42787</v>
       </c>
-      <c r="J15" s="71" t="s">
+      <c r="J15" s="59" t="s">
         <v>238</v>
       </c>
       <c r="K15" s="45"/>
@@ -7026,7 +7026,7 @@
       <c r="P15" s="13"/>
       <c r="Q15" s="13"/>
     </row>
-    <row r="16" spans="1:17" s="16" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" s="16" customFormat="1" ht="51.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
@@ -7034,8 +7034,8 @@
       <c r="B16" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="56"/>
-      <c r="D16" s="59"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="73"/>
       <c r="E16" s="7" t="s">
         <v>4</v>
       </c>
@@ -7046,8 +7046,8 @@
       <c r="H16" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="I16" s="69"/>
-      <c r="J16" s="69"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
       <c r="K16" s="43"/>
       <c r="L16" s="13" t="s">
         <v>89</v>
@@ -7060,7 +7060,7 @@
       <c r="P16" s="13"/>
       <c r="Q16" s="13"/>
     </row>
-    <row r="17" spans="1:17" s="16" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" s="16" customFormat="1" ht="51.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
@@ -7068,8 +7068,8 @@
       <c r="B17" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="56"/>
-      <c r="D17" s="59"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="73"/>
       <c r="E17" s="7" t="s">
         <v>200</v>
       </c>
@@ -7080,8 +7080,8 @@
       <c r="H17" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="I17" s="69"/>
-      <c r="J17" s="69"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="60"/>
       <c r="K17" s="43"/>
       <c r="L17" s="13" t="s">
         <v>89</v>
@@ -7094,21 +7094,21 @@
       <c r="P17" s="13"/>
       <c r="Q17" s="13"/>
     </row>
-    <row r="18" spans="1:17" s="16" customFormat="1" ht="78" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" s="16" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="13"/>
       <c r="B18" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="56"/>
-      <c r="D18" s="59"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="73"/>
       <c r="E18" s="7" t="s">
         <v>201</v>
       </c>
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
       <c r="H18" s="15"/>
-      <c r="I18" s="69"/>
-      <c r="J18" s="69"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
       <c r="K18" s="43"/>
       <c r="L18" s="13" t="s">
         <v>89</v>
@@ -7121,7 +7121,7 @@
       <c r="P18" s="13"/>
       <c r="Q18" s="13"/>
     </row>
-    <row r="19" spans="1:17" s="16" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" s="16" customFormat="1" ht="51.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="e">
         <f>1+A17</f>
         <v>#REF!</v>
@@ -7129,8 +7129,8 @@
       <c r="B19" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="56"/>
-      <c r="D19" s="60"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="74"/>
       <c r="E19" s="7" t="s">
         <v>253</v>
       </c>
@@ -7141,8 +7141,8 @@
       <c r="H19" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="I19" s="70"/>
-      <c r="J19" s="70"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="61"/>
       <c r="K19" s="44"/>
       <c r="L19" s="13" t="s">
         <v>89</v>
@@ -7155,7 +7155,7 @@
       <c r="P19" s="13"/>
       <c r="Q19" s="13"/>
     </row>
-    <row r="20" spans="1:17" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" s="16" customFormat="1" ht="30.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
@@ -7163,7 +7163,7 @@
       <c r="B20" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="56"/>
+      <c r="C20" s="79"/>
       <c r="D20" s="7" t="s">
         <v>29</v>
       </c>
@@ -7205,7 +7205,7 @@
       <c r="B21" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="55" t="s">
+      <c r="C21" s="66" t="s">
         <v>184</v>
       </c>
       <c r="D21" s="7" t="s">
@@ -7237,7 +7237,7 @@
       <c r="P21" s="14"/>
       <c r="Q21" s="22"/>
     </row>
-    <row r="22" spans="1:17" s="23" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" s="23" customFormat="1" ht="30.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
@@ -7245,7 +7245,7 @@
       <c r="B22" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="57"/>
+      <c r="C22" s="80"/>
       <c r="D22" s="7" t="s">
         <v>241</v>
       </c>
@@ -7320,7 +7320,7 @@
       <c r="B24" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="C24" s="55" t="s">
+      <c r="C24" s="66" t="s">
         <v>180</v>
       </c>
       <c r="D24" s="7" t="s">
@@ -7334,24 +7334,24 @@
       <c r="H24" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="I24" s="68">
+      <c r="I24" s="62">
         <v>42791</v>
       </c>
-      <c r="J24" s="68">
+      <c r="J24" s="62">
         <v>42804</v>
       </c>
       <c r="K24" s="42"/>
       <c r="L24" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="M24" s="71" t="s">
+      <c r="M24" s="59" t="s">
         <v>218</v>
       </c>
       <c r="N24" s="52"/>
       <c r="O24" s="13"/>
       <c r="P24" s="13"/>
     </row>
-    <row r="25" spans="1:17" s="16" customFormat="1" ht="47.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" s="16" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
@@ -7359,7 +7359,7 @@
       <c r="B25" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="C25" s="56"/>
+      <c r="C25" s="79"/>
       <c r="D25" s="7" t="s">
         <v>7</v>
       </c>
@@ -7371,18 +7371,18 @@
       <c r="H25" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="I25" s="69"/>
-      <c r="J25" s="72"/>
+      <c r="I25" s="60"/>
+      <c r="J25" s="63"/>
       <c r="K25" s="46"/>
       <c r="L25" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="M25" s="69"/>
+      <c r="M25" s="60"/>
       <c r="N25" s="53"/>
       <c r="O25" s="13"/>
       <c r="P25" s="13"/>
     </row>
-    <row r="26" spans="1:17" s="16" customFormat="1" ht="30.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
@@ -7390,7 +7390,7 @@
       <c r="B26" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="C26" s="56"/>
+      <c r="C26" s="79"/>
       <c r="D26" s="7" t="s">
         <v>221</v>
       </c>
@@ -7402,18 +7402,18 @@
       <c r="H26" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="I26" s="69"/>
-      <c r="J26" s="72"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="63"/>
       <c r="K26" s="46"/>
       <c r="L26" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="M26" s="69"/>
+      <c r="M26" s="60"/>
       <c r="N26" s="53"/>
       <c r="O26" s="13"/>
       <c r="P26" s="13"/>
     </row>
-    <row r="27" spans="1:17" s="32" customFormat="1" ht="30.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" s="32" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="27" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
@@ -7421,7 +7421,7 @@
       <c r="B27" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="C27" s="56"/>
+      <c r="C27" s="79"/>
       <c r="D27" s="29" t="s">
         <v>219</v>
       </c>
@@ -7433,18 +7433,18 @@
       <c r="H27" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="I27" s="69"/>
-      <c r="J27" s="72"/>
+      <c r="I27" s="60"/>
+      <c r="J27" s="63"/>
       <c r="K27" s="46"/>
       <c r="L27" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="M27" s="69"/>
+      <c r="M27" s="60"/>
       <c r="N27" s="53"/>
       <c r="O27" s="27"/>
       <c r="P27" s="27"/>
     </row>
-    <row r="28" spans="1:17" s="16" customFormat="1" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" s="16" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="e">
         <f>1+#REF!</f>
         <v>#REF!</v>
@@ -7452,7 +7452,7 @@
       <c r="B28" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="C28" s="56"/>
+      <c r="C28" s="79"/>
       <c r="D28" s="7" t="s">
         <v>159</v>
       </c>
@@ -7464,18 +7464,18 @@
       <c r="H28" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="I28" s="69"/>
-      <c r="J28" s="72"/>
+      <c r="I28" s="60"/>
+      <c r="J28" s="63"/>
       <c r="K28" s="46"/>
       <c r="L28" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="M28" s="69"/>
+      <c r="M28" s="60"/>
       <c r="N28" s="53"/>
       <c r="O28" s="13"/>
       <c r="P28" s="13"/>
     </row>
-    <row r="29" spans="1:17" s="16" customFormat="1" ht="30.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
@@ -7483,7 +7483,7 @@
       <c r="B29" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="C29" s="56"/>
+      <c r="C29" s="79"/>
       <c r="D29" s="7" t="s">
         <v>222</v>
       </c>
@@ -7495,18 +7495,18 @@
       <c r="H29" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="I29" s="69"/>
-      <c r="J29" s="72"/>
+      <c r="I29" s="60"/>
+      <c r="J29" s="63"/>
       <c r="K29" s="46"/>
       <c r="L29" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="M29" s="69"/>
+      <c r="M29" s="60"/>
       <c r="N29" s="53"/>
       <c r="O29" s="13"/>
       <c r="P29" s="13"/>
     </row>
-    <row r="30" spans="1:17" s="16" customFormat="1" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" s="16" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
@@ -7514,7 +7514,7 @@
       <c r="B30" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="C30" s="56"/>
+      <c r="C30" s="79"/>
       <c r="D30" s="7" t="s">
         <v>223</v>
       </c>
@@ -7528,18 +7528,18 @@
       <c r="H30" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="I30" s="69"/>
-      <c r="J30" s="72"/>
+      <c r="I30" s="60"/>
+      <c r="J30" s="63"/>
       <c r="K30" s="46"/>
       <c r="L30" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="M30" s="69"/>
+      <c r="M30" s="60"/>
       <c r="N30" s="53"/>
       <c r="O30" s="13"/>
       <c r="P30" s="13"/>
     </row>
-    <row r="31" spans="1:17" s="16" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" s="16" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
@@ -7547,7 +7547,7 @@
       <c r="B31" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="C31" s="57"/>
+      <c r="C31" s="80"/>
       <c r="D31" s="7" t="s">
         <v>224</v>
       </c>
@@ -7561,13 +7561,13 @@
       <c r="H31" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="I31" s="70"/>
-      <c r="J31" s="75"/>
+      <c r="I31" s="61"/>
+      <c r="J31" s="64"/>
       <c r="K31" s="47"/>
       <c r="L31" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="M31" s="70"/>
+      <c r="M31" s="61"/>
       <c r="N31" s="54"/>
       <c r="O31" s="13"/>
       <c r="P31" s="13"/>
@@ -7580,7 +7580,7 @@
       <c r="B32" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="C32" s="55" t="s">
+      <c r="C32" s="66" t="s">
         <v>180</v>
       </c>
       <c r="D32" s="7" t="s">
@@ -7607,10 +7607,10 @@
       <c r="M32" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="N32" s="80"/>
+      <c r="N32" s="55"/>
       <c r="P32" s="13"/>
     </row>
-    <row r="33" spans="1:16" s="16" customFormat="1" ht="30.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="13" t="e">
         <f>1+#REF!</f>
         <v>#REF!</v>
@@ -7618,7 +7618,7 @@
       <c r="B33" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="C33" s="56"/>
+      <c r="C33" s="79"/>
       <c r="D33" s="7" t="s">
         <v>133</v>
       </c>
@@ -7643,10 +7643,10 @@
       <c r="M33" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="N33" s="80"/>
+      <c r="N33" s="55"/>
       <c r="P33" s="13"/>
     </row>
-    <row r="34" spans="1:16" s="16" customFormat="1" ht="30.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
@@ -7654,7 +7654,7 @@
       <c r="B34" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="C34" s="57"/>
+      <c r="C34" s="80"/>
       <c r="D34" s="7" t="s">
         <v>134</v>
       </c>
@@ -7679,18 +7679,18 @@
       <c r="M34" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="N34" s="80"/>
+      <c r="N34" s="55"/>
       <c r="P34" s="13"/>
     </row>
-    <row r="35" spans="1:16" s="16" customFormat="1" ht="30.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="B35" s="55" t="s">
+      <c r="B35" s="66" t="s">
         <v>77</v>
       </c>
-      <c r="C35" s="55" t="s">
+      <c r="C35" s="66" t="s">
         <v>180</v>
       </c>
       <c r="D35" s="7" t="s">
@@ -7725,13 +7725,13 @@
       <c r="O35" s="13"/>
       <c r="P35" s="13"/>
     </row>
-    <row r="36" spans="1:16" s="16" customFormat="1" ht="30.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="B36" s="57"/>
-      <c r="C36" s="57"/>
+      <c r="B36" s="80"/>
+      <c r="C36" s="80"/>
       <c r="D36" s="7" t="s">
         <v>120</v>
       </c>
@@ -7760,7 +7760,7 @@
       <c r="O36" s="13"/>
       <c r="P36" s="13"/>
     </row>
-    <row r="37" spans="1:16" s="16" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" s="16" customFormat="1" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
@@ -7801,7 +7801,7 @@
       <c r="O37" s="13"/>
       <c r="P37" s="13"/>
     </row>
-    <row r="38" spans="1:16" s="16" customFormat="1" ht="74.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" s="16" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
@@ -7840,7 +7840,7 @@
       <c r="O38" s="13"/>
       <c r="P38" s="13"/>
     </row>
-    <row r="39" spans="1:16" s="16" customFormat="1" ht="30.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="13" t="e">
         <f>1+#REF!</f>
         <v>#REF!</v>
@@ -7848,7 +7848,7 @@
       <c r="B39" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="C39" s="56"/>
+      <c r="C39" s="79"/>
       <c r="D39" s="7" t="s">
         <v>247</v>
       </c>
@@ -7860,18 +7860,18 @@
       <c r="H39" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="I39" s="69"/>
-      <c r="J39" s="69"/>
+      <c r="I39" s="60"/>
+      <c r="J39" s="60"/>
       <c r="K39" s="43"/>
       <c r="L39" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="M39" s="69"/>
+      <c r="M39" s="60"/>
       <c r="N39" s="53"/>
-      <c r="O39" s="69"/>
+      <c r="O39" s="60"/>
       <c r="P39" s="13"/>
     </row>
-    <row r="40" spans="1:16" s="16" customFormat="1" ht="30.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
@@ -7879,7 +7879,7 @@
       <c r="B40" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="C40" s="57"/>
+      <c r="C40" s="80"/>
       <c r="D40" s="7" t="s">
         <v>246</v>
       </c>
@@ -7891,18 +7891,18 @@
       <c r="H40" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="I40" s="70"/>
-      <c r="J40" s="70"/>
+      <c r="I40" s="61"/>
+      <c r="J40" s="61"/>
       <c r="K40" s="44"/>
       <c r="L40" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="M40" s="70"/>
+      <c r="M40" s="61"/>
       <c r="N40" s="54"/>
-      <c r="O40" s="70"/>
+      <c r="O40" s="61"/>
       <c r="P40" s="13"/>
     </row>
-    <row r="41" spans="1:16" s="16" customFormat="1" ht="46.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" s="16" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
@@ -7910,7 +7910,7 @@
       <c r="B41" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="C41" s="55" t="s">
+      <c r="C41" s="66" t="s">
         <v>180</v>
       </c>
       <c r="D41" s="7" t="s">
@@ -7927,21 +7927,21 @@
       <c r="I41" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="J41" s="68">
+      <c r="J41" s="62">
         <v>42797</v>
       </c>
       <c r="K41" s="42"/>
       <c r="L41" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="M41" s="71" t="s">
+      <c r="M41" s="59" t="s">
         <v>152</v>
       </c>
       <c r="N41" s="52"/>
       <c r="O41" s="13"/>
       <c r="P41" s="13"/>
     </row>
-    <row r="42" spans="1:16" s="16" customFormat="1" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" s="16" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
@@ -7949,7 +7949,7 @@
       <c r="B42" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="C42" s="56"/>
+      <c r="C42" s="79"/>
       <c r="D42" s="7" t="s">
         <v>221</v>
       </c>
@@ -7964,17 +7964,17 @@
       <c r="I42" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="J42" s="72"/>
+      <c r="J42" s="63"/>
       <c r="K42" s="46"/>
       <c r="L42" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="M42" s="69"/>
+      <c r="M42" s="60"/>
       <c r="N42" s="53"/>
       <c r="O42" s="13"/>
       <c r="P42" s="13"/>
     </row>
-    <row r="43" spans="1:16" s="16" customFormat="1" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" s="16" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
@@ -7982,7 +7982,7 @@
       <c r="B43" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="C43" s="56"/>
+      <c r="C43" s="79"/>
       <c r="D43" s="7" t="s">
         <v>226</v>
       </c>
@@ -7997,17 +7997,17 @@
       <c r="I43" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="J43" s="72"/>
+      <c r="J43" s="63"/>
       <c r="K43" s="46"/>
       <c r="L43" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="M43" s="69"/>
+      <c r="M43" s="60"/>
       <c r="N43" s="53"/>
       <c r="O43" s="13"/>
       <c r="P43" s="13"/>
     </row>
-    <row r="44" spans="1:16" s="16" customFormat="1" ht="46.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" s="16" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="13" t="e">
         <f t="shared" ref="A44:A50" si="1">1+A43</f>
         <v>#REF!</v>
@@ -8015,7 +8015,7 @@
       <c r="B44" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="C44" s="56"/>
+      <c r="C44" s="79"/>
       <c r="D44" s="7" t="s">
         <v>168</v>
       </c>
@@ -8030,17 +8030,17 @@
       <c r="I44" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="J44" s="72"/>
+      <c r="J44" s="63"/>
       <c r="K44" s="46"/>
       <c r="L44" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="M44" s="69"/>
+      <c r="M44" s="60"/>
       <c r="N44" s="53"/>
       <c r="O44" s="13"/>
       <c r="P44" s="13"/>
     </row>
-    <row r="45" spans="1:16" s="16" customFormat="1" ht="55.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" s="16" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#REF!</v>
@@ -8048,7 +8048,7 @@
       <c r="B45" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="C45" s="56"/>
+      <c r="C45" s="79"/>
       <c r="D45" s="7" t="s">
         <v>227</v>
       </c>
@@ -8065,17 +8065,17 @@
       <c r="I45" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="J45" s="72"/>
+      <c r="J45" s="63"/>
       <c r="K45" s="46"/>
       <c r="L45" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="M45" s="69"/>
+      <c r="M45" s="60"/>
       <c r="N45" s="53"/>
       <c r="O45" s="13"/>
       <c r="P45" s="13"/>
     </row>
-    <row r="46" spans="1:16" s="16" customFormat="1" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" s="16" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#REF!</v>
@@ -8083,7 +8083,7 @@
       <c r="B46" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="C46" s="57"/>
+      <c r="C46" s="80"/>
       <c r="D46" s="7" t="s">
         <v>12</v>
       </c>
@@ -8098,12 +8098,12 @@
       <c r="I46" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="J46" s="75"/>
+      <c r="J46" s="64"/>
       <c r="K46" s="47"/>
       <c r="L46" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="M46" s="70"/>
+      <c r="M46" s="61"/>
       <c r="N46" s="54"/>
       <c r="O46" s="13"/>
       <c r="P46" s="13"/>
@@ -8116,7 +8116,7 @@
       <c r="B47" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="C47" s="55" t="s">
+      <c r="C47" s="66" t="s">
         <v>180</v>
       </c>
       <c r="D47" s="7" t="s">
@@ -8131,21 +8131,21 @@
       <c r="I47" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="J47" s="76">
+      <c r="J47" s="65">
         <v>42815</v>
       </c>
       <c r="K47" s="48"/>
       <c r="L47" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="M47" s="71" t="s">
+      <c r="M47" s="59" t="s">
         <v>161</v>
       </c>
       <c r="N47" s="52"/>
-      <c r="O47" s="68"/>
+      <c r="O47" s="62"/>
       <c r="P47" s="13"/>
     </row>
-    <row r="48" spans="1:16" s="16" customFormat="1" ht="30.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#REF!</v>
@@ -8153,7 +8153,7 @@
       <c r="B48" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="C48" s="56"/>
+      <c r="C48" s="79"/>
       <c r="D48" s="7" t="s">
         <v>252</v>
       </c>
@@ -8166,17 +8166,17 @@
       <c r="I48" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="J48" s="69"/>
+      <c r="J48" s="60"/>
       <c r="K48" s="43"/>
       <c r="L48" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="M48" s="69"/>
+      <c r="M48" s="60"/>
       <c r="N48" s="53"/>
-      <c r="O48" s="72"/>
+      <c r="O48" s="63"/>
       <c r="P48" s="13"/>
     </row>
-    <row r="49" spans="1:16" s="16" customFormat="1" ht="35.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:16" s="16" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#REF!</v>
@@ -8184,7 +8184,7 @@
       <c r="B49" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="C49" s="56"/>
+      <c r="C49" s="79"/>
       <c r="D49" s="7" t="s">
         <v>258</v>
       </c>
@@ -8197,17 +8197,17 @@
       <c r="I49" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="J49" s="69"/>
+      <c r="J49" s="60"/>
       <c r="K49" s="43"/>
       <c r="L49" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="M49" s="69"/>
+      <c r="M49" s="60"/>
       <c r="N49" s="53"/>
-      <c r="O49" s="72"/>
+      <c r="O49" s="63"/>
       <c r="P49" s="13"/>
     </row>
-    <row r="50" spans="1:16" s="16" customFormat="1" ht="30.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:16" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#REF!</v>
@@ -8215,7 +8215,7 @@
       <c r="B50" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="C50" s="57"/>
+      <c r="C50" s="80"/>
       <c r="D50" s="7" t="s">
         <v>199</v>
       </c>
@@ -8228,17 +8228,17 @@
       <c r="I50" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="J50" s="70"/>
+      <c r="J50" s="61"/>
       <c r="K50" s="44"/>
       <c r="L50" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="M50" s="70"/>
+      <c r="M50" s="61"/>
       <c r="N50" s="54"/>
-      <c r="O50" s="75"/>
+      <c r="O50" s="64"/>
       <c r="P50" s="13"/>
     </row>
-    <row r="51" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:16" ht="30.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="5"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -10246,17 +10246,42 @@
   <autoFilter ref="A1:Q51">
     <filterColumn colId="3" showButton="0"/>
     <filterColumn colId="12">
-      <filters>
+      <filters blank="1">
+        <filter val="测试驱动"/>
         <filter val="胡真瑞"/>
+        <filter val="黄大剑"/>
         <filter val="王富贵"/>
-        <filter val="肖扬"/>
         <filter val="杨杰"/>
         <filter val="叶亮"/>
-        <filter val="张兴亮"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <mergeCells count="34">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="C2:C7"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="F2:F7"/>
+    <mergeCell ref="J2:J7"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="J15:J19"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="C10:C20"/>
+    <mergeCell ref="I11:I14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="D15:D19"/>
+    <mergeCell ref="I15:I19"/>
+    <mergeCell ref="C24:C31"/>
+    <mergeCell ref="I24:I31"/>
+    <mergeCell ref="J24:J31"/>
+    <mergeCell ref="M24:M31"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="J39:J40"/>
     <mergeCell ref="O47:O50"/>
     <mergeCell ref="C47:C50"/>
     <mergeCell ref="J47:J50"/>
@@ -10266,31 +10291,6 @@
     <mergeCell ref="C41:C46"/>
     <mergeCell ref="J41:J46"/>
     <mergeCell ref="M41:M46"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="C24:C31"/>
-    <mergeCell ref="I24:I31"/>
-    <mergeCell ref="J24:J31"/>
-    <mergeCell ref="M24:M31"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="J15:J19"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="C10:C20"/>
-    <mergeCell ref="I11:I14"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="D15:D19"/>
-    <mergeCell ref="I15:I19"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="C2:C7"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="F2:F7"/>
-    <mergeCell ref="J2:J7"/>
-    <mergeCell ref="D4:D7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10339,10 +10339,10 @@
       <c r="C1" s="39" t="s">
         <v>189</v>
       </c>
-      <c r="D1" s="64" t="s">
+      <c r="D1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="65"/>
+      <c r="E1" s="76"/>
       <c r="F1" s="3" t="s">
         <v>30</v>
       </c>
@@ -10381,16 +10381,16 @@
       <c r="B2" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="66" t="s">
         <v>184</v>
       </c>
-      <c r="D2" s="66" t="s">
+      <c r="D2" s="77" t="s">
         <v>17</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>251</v>
       </c>
-      <c r="F2" s="61" t="s">
+      <c r="F2" s="69" t="s">
         <v>32</v>
       </c>
       <c r="G2" s="12"/>
@@ -10400,7 +10400,7 @@
       <c r="I2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J2" s="77">
+      <c r="J2" s="56">
         <v>42804</v>
       </c>
       <c r="K2" s="2" t="s">
@@ -10421,12 +10421,12 @@
       <c r="B3" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="67"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="78"/>
       <c r="E3" s="18" t="s">
         <v>248</v>
       </c>
-      <c r="F3" s="63"/>
+      <c r="F3" s="70"/>
       <c r="G3" s="12"/>
       <c r="H3" s="2" t="s">
         <v>106</v>
@@ -10434,7 +10434,7 @@
       <c r="I3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J3" s="78"/>
+      <c r="J3" s="57"/>
       <c r="K3" s="2" t="s">
         <v>89</v>
       </c>
@@ -10453,14 +10453,14 @@
       <c r="B4" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="56"/>
-      <c r="D4" s="58" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="72" t="s">
         <v>21</v>
       </c>
       <c r="E4" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="63"/>
+      <c r="F4" s="70"/>
       <c r="G4" s="12" t="s">
         <v>150</v>
       </c>
@@ -10470,7 +10470,7 @@
       <c r="I4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="78"/>
+      <c r="J4" s="57"/>
       <c r="K4" s="13" t="s">
         <v>125</v>
       </c>
@@ -10489,12 +10489,12 @@
       <c r="B5" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="56"/>
-      <c r="D5" s="59"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="73"/>
       <c r="E5" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="F5" s="63"/>
+      <c r="F5" s="70"/>
       <c r="G5" s="12"/>
       <c r="H5" s="2" t="s">
         <v>106</v>
@@ -10502,7 +10502,7 @@
       <c r="I5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="57"/>
       <c r="K5" s="13" t="s">
         <v>125</v>
       </c>
@@ -10521,12 +10521,12 @@
       <c r="B6" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="56"/>
-      <c r="D6" s="59"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="73"/>
       <c r="E6" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="F6" s="63"/>
+      <c r="F6" s="70"/>
       <c r="G6" s="12" t="s">
         <v>151</v>
       </c>
@@ -10536,7 +10536,7 @@
       <c r="I6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="78"/>
+      <c r="J6" s="57"/>
       <c r="K6" s="13" t="s">
         <v>125</v>
       </c>
@@ -10555,12 +10555,12 @@
       <c r="B7" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="56"/>
-      <c r="D7" s="60"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="74"/>
       <c r="E7" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="F7" s="62"/>
+      <c r="F7" s="71"/>
       <c r="G7" s="12"/>
       <c r="H7" s="2" t="s">
         <v>106</v>
@@ -10568,7 +10568,7 @@
       <c r="I7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J7" s="79"/>
+      <c r="J7" s="58"/>
       <c r="K7" s="13" t="s">
         <v>125</v>
       </c>
@@ -10623,7 +10623,7 @@
       <c r="B9" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="55" t="s">
+      <c r="C9" s="66" t="s">
         <v>180</v>
       </c>
       <c r="D9" s="7" t="s">
@@ -10637,7 +10637,7 @@
       <c r="H9" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="I9" s="71" t="s">
+      <c r="I9" s="59" t="s">
         <v>90</v>
       </c>
       <c r="J9" s="19">
@@ -10659,7 +10659,7 @@
       <c r="B10" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="56"/>
+      <c r="C10" s="79"/>
       <c r="D10" s="7" t="s">
         <v>72</v>
       </c>
@@ -10671,7 +10671,7 @@
       <c r="H10" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="I10" s="70"/>
+      <c r="I10" s="61"/>
       <c r="J10" s="19">
         <v>42815</v>
       </c>
@@ -10691,7 +10691,7 @@
       <c r="B11" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="C11" s="56"/>
+      <c r="C11" s="79"/>
       <c r="D11" s="7" t="s">
         <v>73</v>
       </c>
@@ -10705,7 +10705,7 @@
       <c r="H11" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="I11" s="68">
+      <c r="I11" s="62">
         <v>42791</v>
       </c>
       <c r="J11" s="13" t="s">
@@ -10727,7 +10727,7 @@
       <c r="B12" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="56"/>
+      <c r="C12" s="79"/>
       <c r="D12" s="7" t="s">
         <v>192</v>
       </c>
@@ -10741,7 +10741,7 @@
       <c r="H12" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="I12" s="70"/>
+      <c r="I12" s="61"/>
       <c r="J12" s="13" t="s">
         <v>234</v>
       </c>
@@ -10761,7 +10761,7 @@
       <c r="B13" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="C13" s="56"/>
+      <c r="C13" s="79"/>
       <c r="D13" s="7" t="s">
         <v>69</v>
       </c>
@@ -10795,7 +10795,7 @@
       <c r="B14" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="56"/>
+      <c r="C14" s="79"/>
       <c r="D14" s="7" t="s">
         <v>133</v>
       </c>
@@ -10829,7 +10829,7 @@
       <c r="B15" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="C15" s="57"/>
+      <c r="C15" s="80"/>
       <c r="D15" s="7" t="s">
         <v>134</v>
       </c>
@@ -10860,10 +10860,10 @@
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="B16" s="55" t="s">
+      <c r="B16" s="66" t="s">
         <v>77</v>
       </c>
-      <c r="C16" s="55" t="s">
+      <c r="C16" s="66" t="s">
         <v>180</v>
       </c>
       <c r="D16" s="7" t="s">
@@ -10901,8 +10901,8 @@
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="B17" s="57"/>
-      <c r="C17" s="57"/>
+      <c r="B17" s="80"/>
+      <c r="C17" s="80"/>
       <c r="D17" s="7" t="s">
         <v>120</v>
       </c>
@@ -11003,7 +11003,7 @@
       <c r="B20" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="C20" s="55" t="s">
+      <c r="C20" s="66" t="s">
         <v>180</v>
       </c>
       <c r="D20" s="7" t="s">
@@ -11018,16 +11018,16 @@
       <c r="I20" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="J20" s="76">
+      <c r="J20" s="65">
         <v>42815</v>
       </c>
       <c r="K20" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="L20" s="71" t="s">
+      <c r="L20" s="59" t="s">
         <v>161</v>
       </c>
-      <c r="M20" s="68"/>
+      <c r="M20" s="62"/>
       <c r="N20" s="13"/>
     </row>
     <row r="21" spans="1:14" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11038,7 +11038,7 @@
       <c r="B21" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="C21" s="56"/>
+      <c r="C21" s="79"/>
       <c r="D21" s="7" t="s">
         <v>252</v>
       </c>
@@ -11051,12 +11051,12 @@
       <c r="I21" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="J21" s="69"/>
+      <c r="J21" s="60"/>
       <c r="K21" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="L21" s="69"/>
-      <c r="M21" s="72"/>
+      <c r="L21" s="60"/>
+      <c r="M21" s="63"/>
       <c r="N21" s="13"/>
     </row>
     <row r="22" spans="1:14" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11067,7 +11067,7 @@
       <c r="B22" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="C22" s="56"/>
+      <c r="C22" s="79"/>
       <c r="D22" s="7" t="s">
         <v>197</v>
       </c>
@@ -11080,12 +11080,12 @@
       <c r="I22" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="J22" s="69"/>
+      <c r="J22" s="60"/>
       <c r="K22" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="L22" s="69"/>
-      <c r="M22" s="72"/>
+      <c r="L22" s="60"/>
+      <c r="M22" s="63"/>
       <c r="N22" s="13"/>
     </row>
     <row r="23" spans="1:14" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11096,7 +11096,7 @@
       <c r="B23" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="C23" s="57"/>
+      <c r="C23" s="80"/>
       <c r="D23" s="7" t="s">
         <v>199</v>
       </c>
@@ -11109,12 +11109,12 @@
       <c r="I23" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="J23" s="70"/>
+      <c r="J23" s="61"/>
       <c r="K23" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="L23" s="70"/>
-      <c r="M23" s="75"/>
+      <c r="L23" s="61"/>
+      <c r="M23" s="64"/>
       <c r="N23" s="13"/>
     </row>
     <row r="24" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12904,11 +12904,6 @@
     <filterColumn colId="3" showButton="0"/>
   </autoFilter>
   <mergeCells count="15">
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="C2:C7"/>
-    <mergeCell ref="D2:D3"/>
     <mergeCell ref="F2:F7"/>
     <mergeCell ref="M20:M23"/>
     <mergeCell ref="C20:C23"/>
@@ -12919,6 +12914,11 @@
     <mergeCell ref="C9:C15"/>
     <mergeCell ref="I9:I10"/>
     <mergeCell ref="I11:I12"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="C2:C7"/>
+    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12967,10 +12967,10 @@
       <c r="C1" s="39" t="s">
         <v>189</v>
       </c>
-      <c r="D1" s="64" t="s">
+      <c r="D1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="65"/>
+      <c r="E1" s="76"/>
       <c r="F1" s="3" t="s">
         <v>30</v>
       </c>
@@ -14845,10 +14845,10 @@
       <c r="C1" s="39" t="s">
         <v>189</v>
       </c>
-      <c r="D1" s="64" t="s">
+      <c r="D1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="65"/>
+      <c r="E1" s="76"/>
       <c r="F1" s="3" t="s">
         <v>30</v>
       </c>
@@ -14928,7 +14928,7 @@
       <c r="B3" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="66" t="s">
         <v>178</v>
       </c>
       <c r="D3" s="7" t="s">
@@ -14969,7 +14969,7 @@
       <c r="B4" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="56"/>
+      <c r="C4" s="79"/>
       <c r="D4" s="7" t="s">
         <v>53</v>
       </c>
@@ -15006,7 +15006,7 @@
       <c r="B5" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="56"/>
+      <c r="C5" s="79"/>
       <c r="D5" s="7" t="s">
         <v>56</v>
       </c>
@@ -15045,7 +15045,7 @@
       <c r="B6" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="56"/>
+      <c r="C6" s="79"/>
       <c r="D6" s="7" t="s">
         <v>47</v>
       </c>
@@ -15080,7 +15080,7 @@
       <c r="B7" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="56"/>
+      <c r="C7" s="79"/>
       <c r="D7" s="7" t="s">
         <v>59</v>
       </c>
@@ -15119,7 +15119,7 @@
       <c r="B8" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="56"/>
+      <c r="C8" s="79"/>
       <c r="D8" s="7" t="s">
         <v>171</v>
       </c>
@@ -15131,7 +15131,7 @@
       <c r="H8" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="I8" s="73">
+      <c r="I8" s="67">
         <v>42791</v>
       </c>
       <c r="J8" s="19">
@@ -15154,7 +15154,7 @@
       <c r="B9" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="56"/>
+      <c r="C9" s="79"/>
       <c r="D9" s="7" t="s">
         <v>61</v>
       </c>
@@ -15166,7 +15166,7 @@
       <c r="H9" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="I9" s="74"/>
+      <c r="I9" s="68"/>
       <c r="J9" s="13" t="s">
         <v>208</v>
       </c>
@@ -15187,7 +15187,7 @@
       <c r="B10" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="56"/>
+      <c r="C10" s="79"/>
       <c r="D10" s="29" t="s">
         <v>62</v>
       </c>
@@ -15222,8 +15222,8 @@
       <c r="B11" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="56"/>
-      <c r="D11" s="58" t="s">
+      <c r="C11" s="79"/>
+      <c r="D11" s="72" t="s">
         <v>65</v>
       </c>
       <c r="E11" s="7" t="s">
@@ -15236,16 +15236,16 @@
       <c r="H11" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="I11" s="71" t="s">
+      <c r="I11" s="59" t="s">
         <v>141</v>
       </c>
-      <c r="J11" s="68">
+      <c r="J11" s="62">
         <v>42804</v>
       </c>
       <c r="K11" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="L11" s="71" t="s">
+      <c r="L11" s="59" t="s">
         <v>203</v>
       </c>
       <c r="M11" s="13"/>
@@ -15259,8 +15259,8 @@
       <c r="B12" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="56"/>
-      <c r="D12" s="59"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="73"/>
       <c r="E12" s="7" t="s">
         <v>236</v>
       </c>
@@ -15271,12 +15271,12 @@
       <c r="H12" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="I12" s="69"/>
-      <c r="J12" s="69"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
       <c r="K12" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="L12" s="69"/>
+      <c r="L12" s="60"/>
       <c r="M12" s="13"/>
       <c r="N12" s="13"/>
     </row>
@@ -15288,8 +15288,8 @@
       <c r="B13" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="56"/>
-      <c r="D13" s="59"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="73"/>
       <c r="E13" s="7" t="s">
         <v>48</v>
       </c>
@@ -15300,12 +15300,12 @@
       <c r="H13" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="I13" s="69"/>
-      <c r="J13" s="69"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="60"/>
       <c r="K13" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="L13" s="69"/>
+      <c r="L13" s="60"/>
       <c r="M13" s="13"/>
       <c r="N13" s="13"/>
     </row>
@@ -15317,8 +15317,8 @@
       <c r="B14" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="56"/>
-      <c r="D14" s="60"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="74"/>
       <c r="E14" s="7" t="s">
         <v>11</v>
       </c>
@@ -15329,12 +15329,12 @@
       <c r="H14" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="I14" s="70"/>
-      <c r="J14" s="70"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="61"/>
       <c r="K14" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="L14" s="70"/>
+      <c r="L14" s="61"/>
       <c r="M14" s="13"/>
       <c r="N14" s="13"/>
     </row>
@@ -15346,7 +15346,7 @@
       <c r="B15" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="C15" s="55" t="s">
+      <c r="C15" s="66" t="s">
         <v>180</v>
       </c>
       <c r="D15" s="7" t="s">
@@ -15360,7 +15360,7 @@
       <c r="H15" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="I15" s="71" t="s">
+      <c r="I15" s="59" t="s">
         <v>90</v>
       </c>
       <c r="J15" s="19">
@@ -15382,7 +15382,7 @@
       <c r="B16" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="56"/>
+      <c r="C16" s="79"/>
       <c r="D16" s="7" t="s">
         <v>72</v>
       </c>
@@ -15394,7 +15394,7 @@
       <c r="H16" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="I16" s="70"/>
+      <c r="I16" s="61"/>
       <c r="J16" s="19">
         <v>42815</v>
       </c>
@@ -15414,7 +15414,7 @@
       <c r="B17" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="C17" s="56"/>
+      <c r="C17" s="79"/>
       <c r="D17" s="7" t="s">
         <v>73</v>
       </c>
@@ -15428,7 +15428,7 @@
       <c r="H17" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="I17" s="68">
+      <c r="I17" s="62">
         <v>42791</v>
       </c>
       <c r="J17" s="13" t="s">
@@ -15450,7 +15450,7 @@
       <c r="B18" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="C18" s="56"/>
+      <c r="C18" s="79"/>
       <c r="D18" s="7" t="s">
         <v>192</v>
       </c>
@@ -15464,7 +15464,7 @@
       <c r="H18" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="I18" s="70"/>
+      <c r="I18" s="61"/>
       <c r="J18" s="13" t="s">
         <v>234</v>
       </c>
@@ -15484,7 +15484,7 @@
       <c r="B19" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="C19" s="56"/>
+      <c r="C19" s="79"/>
       <c r="D19" s="7" t="s">
         <v>69</v>
       </c>
@@ -15518,7 +15518,7 @@
       <c r="B20" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="C20" s="56"/>
+      <c r="C20" s="79"/>
       <c r="D20" s="7" t="s">
         <v>133</v>
       </c>
@@ -15552,7 +15552,7 @@
       <c r="B21" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="C21" s="57"/>
+      <c r="C21" s="80"/>
       <c r="D21" s="7" t="s">
         <v>134</v>
       </c>
@@ -15583,10 +15583,10 @@
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="B22" s="55" t="s">
+      <c r="B22" s="66" t="s">
         <v>77</v>
       </c>
-      <c r="C22" s="55" t="s">
+      <c r="C22" s="66" t="s">
         <v>180</v>
       </c>
       <c r="D22" s="7" t="s">
@@ -15624,8 +15624,8 @@
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="B23" s="57"/>
-      <c r="C23" s="57"/>
+      <c r="B23" s="80"/>
+      <c r="C23" s="80"/>
       <c r="D23" s="7" t="s">
         <v>120</v>
       </c>
@@ -15660,7 +15660,7 @@
       <c r="B24" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="C24" s="55" t="s">
+      <c r="C24" s="66" t="s">
         <v>180</v>
       </c>
       <c r="D24" s="7" t="s">
@@ -15697,7 +15697,7 @@
       <c r="B25" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="C25" s="56"/>
+      <c r="C25" s="79"/>
       <c r="D25" s="7" t="s">
         <v>84</v>
       </c>
@@ -17572,10 +17572,10 @@
       <c r="C1" s="39" t="s">
         <v>189</v>
       </c>
-      <c r="D1" s="64" t="s">
+      <c r="D1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="65"/>
+      <c r="E1" s="76"/>
       <c r="F1" s="3" t="s">
         <v>30</v>
       </c>
@@ -19443,10 +19443,10 @@
       <c r="C1" s="39" t="s">
         <v>189</v>
       </c>
-      <c r="D1" s="64" t="s">
+      <c r="D1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="65"/>
+      <c r="E1" s="76"/>
       <c r="F1" s="3" t="s">
         <v>30</v>
       </c>
@@ -21321,10 +21321,10 @@
       <c r="C1" s="39" t="s">
         <v>189</v>
       </c>
-      <c r="D1" s="64" t="s">
+      <c r="D1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="65"/>
+      <c r="E1" s="76"/>
       <c r="F1" s="3" t="s">
         <v>30</v>
       </c>
@@ -21440,7 +21440,7 @@
       <c r="B4" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="66" t="s">
         <v>177</v>
       </c>
       <c r="D4" s="7" t="s">
@@ -21454,19 +21454,19 @@
       <c r="H4" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="I4" s="68">
+      <c r="I4" s="62">
         <v>42791</v>
       </c>
-      <c r="J4" s="68" t="s">
+      <c r="J4" s="62" t="s">
         <v>230</v>
       </c>
       <c r="K4" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="L4" s="71" t="s">
+      <c r="L4" s="59" t="s">
         <v>167</v>
       </c>
-      <c r="M4" s="71"/>
+      <c r="M4" s="59"/>
       <c r="N4" s="13"/>
     </row>
     <row r="5" spans="1:15" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -21477,7 +21477,7 @@
       <c r="B5" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="C5" s="56"/>
+      <c r="C5" s="79"/>
       <c r="D5" s="7" t="s">
         <v>8</v>
       </c>
@@ -21489,13 +21489,13 @@
       <c r="H5" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
       <c r="K5" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="L5" s="69"/>
-      <c r="M5" s="69"/>
+      <c r="L5" s="60"/>
+      <c r="M5" s="60"/>
       <c r="N5" s="13"/>
     </row>
     <row r="6" spans="1:15" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -21506,7 +21506,7 @@
       <c r="B6" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="C6" s="56"/>
+      <c r="C6" s="79"/>
       <c r="D6" s="7" t="s">
         <v>93</v>
       </c>
@@ -21520,13 +21520,13 @@
       <c r="H6" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
       <c r="K6" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="L6" s="69"/>
-      <c r="M6" s="69"/>
+      <c r="L6" s="60"/>
+      <c r="M6" s="60"/>
       <c r="N6" s="13"/>
     </row>
     <row r="7" spans="1:15" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -21537,7 +21537,7 @@
       <c r="B7" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="C7" s="56"/>
+      <c r="C7" s="79"/>
       <c r="D7" s="7" t="s">
         <v>9</v>
       </c>
@@ -21549,13 +21549,13 @@
       <c r="H7" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
       <c r="K7" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="L7" s="69"/>
-      <c r="M7" s="69"/>
+      <c r="L7" s="60"/>
+      <c r="M7" s="60"/>
       <c r="N7" s="13"/>
     </row>
     <row r="8" spans="1:15" s="16" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -21566,7 +21566,7 @@
       <c r="B8" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="C8" s="56"/>
+      <c r="C8" s="79"/>
       <c r="D8" s="7" t="s">
         <v>94</v>
       </c>
@@ -21578,13 +21578,13 @@
       <c r="H8" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="I8" s="69"/>
-      <c r="J8" s="69"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
       <c r="K8" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="L8" s="69"/>
-      <c r="M8" s="69"/>
+      <c r="L8" s="60"/>
+      <c r="M8" s="60"/>
       <c r="N8" s="13"/>
     </row>
     <row r="9" spans="1:15" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -21595,7 +21595,7 @@
       <c r="B9" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="C9" s="56"/>
+      <c r="C9" s="79"/>
       <c r="D9" s="7" t="s">
         <v>95</v>
       </c>
@@ -21607,13 +21607,13 @@
       <c r="H9" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="I9" s="69"/>
-      <c r="J9" s="69"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
       <c r="K9" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="L9" s="69"/>
-      <c r="M9" s="69"/>
+      <c r="L9" s="60"/>
+      <c r="M9" s="60"/>
       <c r="N9" s="13"/>
     </row>
     <row r="10" spans="1:15" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -21624,7 +21624,7 @@
       <c r="B10" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="C10" s="57"/>
+      <c r="C10" s="80"/>
       <c r="D10" s="7" t="s">
         <v>246</v>
       </c>
@@ -21636,13 +21636,13 @@
       <c r="H10" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="I10" s="70"/>
-      <c r="J10" s="70"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="61"/>
       <c r="K10" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="L10" s="70"/>
-      <c r="M10" s="70"/>
+      <c r="L10" s="61"/>
+      <c r="M10" s="61"/>
       <c r="N10" s="13"/>
     </row>
     <row r="11" spans="1:15" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -21650,10 +21650,10 @@
         <f>1+#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B11" s="55" t="s">
+      <c r="B11" s="66" t="s">
         <v>116</v>
       </c>
-      <c r="C11" s="55" t="s">
+      <c r="C11" s="66" t="s">
         <v>180</v>
       </c>
       <c r="D11" s="7" t="s">
@@ -21672,11 +21672,11 @@
       <c r="I11" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="J11" s="71"/>
+      <c r="J11" s="59"/>
       <c r="K11" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="L11" s="71" t="s">
+      <c r="L11" s="59" t="s">
         <v>152</v>
       </c>
       <c r="M11" s="13"/>
@@ -21687,8 +21687,8 @@
         <f t="shared" ref="A12" si="1">1+A11</f>
         <v>#REF!</v>
       </c>
-      <c r="B12" s="56"/>
-      <c r="C12" s="56"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="79"/>
       <c r="D12" s="7" t="s">
         <v>198</v>
       </c>
@@ -21707,11 +21707,11 @@
       <c r="I12" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="J12" s="69"/>
+      <c r="J12" s="60"/>
       <c r="K12" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="L12" s="69"/>
+      <c r="L12" s="60"/>
       <c r="M12" s="13"/>
       <c r="N12" s="13"/>
     </row>
@@ -21720,8 +21720,8 @@
         <f>1+A12</f>
         <v>#REF!</v>
       </c>
-      <c r="B13" s="57"/>
-      <c r="C13" s="57"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="80"/>
       <c r="D13" s="7" t="s">
         <v>147</v>
       </c>
@@ -21738,11 +21738,11 @@
       <c r="I13" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="J13" s="70"/>
+      <c r="J13" s="61"/>
       <c r="K13" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="L13" s="70"/>
+      <c r="L13" s="61"/>
       <c r="M13" s="13"/>
       <c r="N13" s="13"/>
     </row>
@@ -23511,16 +23511,16 @@
     <filterColumn colId="3" showButton="0"/>
   </autoFilter>
   <mergeCells count="10">
+    <mergeCell ref="M4:M10"/>
+    <mergeCell ref="C4:C10"/>
+    <mergeCell ref="I4:I10"/>
+    <mergeCell ref="J4:J10"/>
+    <mergeCell ref="D1:E1"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="C11:C13"/>
     <mergeCell ref="J11:J13"/>
     <mergeCell ref="L11:L13"/>
     <mergeCell ref="L4:L10"/>
-    <mergeCell ref="M4:M10"/>
-    <mergeCell ref="C4:C10"/>
-    <mergeCell ref="I4:I10"/>
-    <mergeCell ref="J4:J10"/>
-    <mergeCell ref="D1:E1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
